--- a/biology/Zoologie/Conus_fraserorum/Conus_fraserorum.xlsx
+++ b/biology/Zoologie/Conus_fraserorum/Conus_fraserorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus fraserorum est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus fraserorum a été décrite pour la première fois en 2020 par le malacologiste allemand Felix Lorenz (d) dans « Conchylia »[1],[2].
-Synonymes
-Nitidoconus fraserorum Lorenz, 2020 · non accepté (combinaison originale)</t>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus fraserorum a été décrite pour la première fois en 2020 par le malacologiste allemand Felix Lorenz (d) dans « Conchylia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_fraserorum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_fraserorum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nitidoconus fraserorum Lorenz, 2020 · non accepté (combinaison originale)</t>
         </is>
       </c>
     </row>
